--- a/2022/SAMSUNG/MAY/30.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/30.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="261">
   <si>
     <t>Date</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>SAMSUNG Margin May'2022</t>
+  </si>
+  <si>
+    <t>Feb Sell Out Margin + April Margin</t>
+  </si>
+  <si>
+    <t>SYMPHONY (-)</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2204,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="454">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3493,6 +3499,9 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="44" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -9624,11 +9633,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9643,6 +9647,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33840,8 +33849,8 @@
   </sheetPr>
   <dimension ref="A1:R218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34054,7 +34063,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="347">
-        <v>741444</v>
+        <v>541444</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="313"/>
@@ -34201,11 +34210,11 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="260" t="s">
-        <v>235</v>
+      <c r="A11" s="453" t="s">
+        <v>259</v>
       </c>
       <c r="B11" s="237">
-        <v>97239</v>
+        <v>200180</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
@@ -34238,11 +34247,11 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="21.75">
-      <c r="A12" s="260" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="237">
-        <v>91646</v>
+      <c r="A12" s="376" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="377">
+        <v>49237</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="289"/>
@@ -34277,11 +34286,12 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" s="287" customFormat="1" ht="21.75">
-      <c r="A13" s="260" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="237">
-        <v>11295</v>
+      <c r="A13" s="340" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="339">
+        <f>B10+B11-B12</f>
+        <v>289034</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="369" t="s">
@@ -34314,12 +34324,8 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="21.75">
-      <c r="A14" s="376" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="377">
-        <v>49237</v>
-      </c>
+      <c r="A14" s="260"/>
+      <c r="B14" s="237"/>
       <c r="C14" s="39"/>
       <c r="D14" s="369" t="s">
         <v>233</v>
@@ -34351,12 +34357,11 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="340" t="s">
-        <v>236</v>
-      </c>
-      <c r="B15" s="339">
-        <f>B10+B11+B12+B13-B14</f>
-        <v>289034</v>
+      <c r="A15" s="260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="237">
+        <v>200000</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="369" t="s">
@@ -34410,8 +34415,8 @@
         <v>5</v>
       </c>
       <c r="B17" s="238">
-        <f>B5+B15</f>
-        <v>13289034</v>
+        <f>B5+B13-B15</f>
+        <v>13089034</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
@@ -34419,7 +34424,7 @@
       </c>
       <c r="E17" s="262">
         <f>SUM(E5:E16)</f>
-        <v>13289034</v>
+        <v>13089034</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="108">
@@ -38774,7 +38779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
